--- a/Planilhas/list_GA_PD.xlsx
+++ b/Planilhas/list_GA_PD.xlsx
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jardim Social</t>
+          <t>em Jardim Social</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Jardim Vitória</t>
+          <t>em Jardim Vitória</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Prédio comercial no São José.</t>
+          <t>São José.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Lote com 10.000m² no Parque Industrial Tancredo Neves</t>
+          <t>Parque Industrial Tancredo Neves</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim Eldorado por R$ 5.000.000</t>
+          <t>Jardim Eldorado por R$ 5.000.000</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>em Rural</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Ponto comercial no setor 19</t>
+          <t>setor 19</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Casa no Centro</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Casa de alto padrão para locação no Centro de Vilhena</t>
+          <t>Centro de Vilhena</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Prédio Comercial no setor 19</t>
+          <t>setor 19</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim Eldorado</t>
+          <t>Jardim Eldorado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Casa no Condomínio Campos Elisios</t>
+          <t>Condomínio Campos Elisios</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Casa no Jardim Eldorado</t>
+          <t>Jardim Eldorado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim América</t>
+          <t>Jardim América</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim Primavera</t>
+          <t>Jardim Primavera</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>ium.</t>
+          <t>Condomínio Boulevard Premium.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Casa no bairro Jardim Universitário</t>
+          <t>bairro Jardim Universitário</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Casa no Bairro Jardim das Oliveiras</t>
+          <t>Bairro Jardim das Oliveiras</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Casa no Quinto Bec</t>
+          <t>Quinto Bec</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Casa no Condominio Campos Elisios</t>
+          <t>Condominio Campos Elisios</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Casa no Centro</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Casa no Centro</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Casa no Bairro Quinto Bec.</t>
+          <t>Bairro Quinto Bec.</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Excelente imóvel localização no centro de Vlhena /RO com terreno de 876m².</t>
+          <t>centro de Vlhena /RO com terreno de 876m².</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11015,7 +11015,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Casa no Condominio Jardim Europa</t>
+          <t>Condominio Jardim Europa</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Duas salas comerciais com casa aos fundos 3 quartos no Centro de Vilhena - R$ 1.200.000</t>
+          <t>Centro de Vilhena - R$ 1.200.000</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim Eldorado</t>
+          <t>Jardim Eldorado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11472,7 +11472,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Casa no Centro de Vilhena.</t>
+          <t>Centro de Vilhena.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Casa no Bairro Jardim Eldorado</t>
+          <t>Bairro Jardim Eldorado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Jardim Eldorado</t>
+          <t>em Jardim Eldorado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Casa no Centro</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Galpão no Setor 19</t>
+          <t>Setor 19</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Galpão no Setor 19</t>
+          <t>Setor 19</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Ponto comercial no cidade verde 4</t>
+          <t>cidade verde 4</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Prério comercial no Jardim Eldorado</t>
+          <t>Jardim Eldorado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Casa no Jardim Universitário</t>
+          <t>Jardim Universitário</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Casa no Jardim Eldorado</t>
+          <t>Jardim Eldorado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Casa no Jardim Universitário</t>
+          <t>Jardim Universitário</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Casa no Orleans.</t>
+          <t>Orleans.</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Parque Industrial Novo Tempo</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Casa de 310m² no Centro de Vilhena com 3 quartos, 1 suíte, 3 banheiros - R$ 800.000 para venda e locação</t>
+          <t>Centro de Vilhena com 3 quartos, 1 suíte, 3 banheiros - R$ 800.000 para venda e locação</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Casa no Centro</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Casa nova no Bairro Jardim Social.</t>
+          <t>Bairro Jardim Social.</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Casa localizada no Bairro Barão do Melgaço III</t>
+          <t>Bairro Barão do Melgaço III</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Casa no Condomínio Imperial Park</t>
+          <t>Condomínio Imperial Park</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Galpão no Jardim América</t>
+          <t>Jardim América</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Casa no Praças de Vilhena</t>
+          <t>Praças de Vilhena</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Condomínio Campos Elísios</t>
+          <t>em Condomínio Campos Elísios</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Casa no Praças de Vilhena</t>
+          <t>Praças de Vilhena</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Casa no Bairro BNH.</t>
+          <t>Bairro BNH.</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -20681,7 +20681,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Casa no Cidade Verde 1</t>
+          <t>Cidade Verde 1</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -20760,30 +20760,32 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://www.gamavilhena.com.br/imovel/casa-2-quartos-pracas-de-vilhena-vilhena-2-vagas-138m2-code-3415</t>
+          <t>https://www.gamavilhena.com.br/imovel/casa-3-quartos-bnh-vilhena-2-vagas-163,39m2-code-4880</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>300</v>
-      </c>
-      <c r="C358" t="n">
-        <v>138</v>
+        <v>163</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E358" t="n">
         <v>1</v>
       </c>
       <c r="F358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Praças de Vilhena</t>
+          <t>Vilhena</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -20802,58 +20804,6 @@
         </is>
       </c>
       <c r="L358" t="inlineStr">
-        <is>
-          <t>Casa de alto padrão á venda localizada no Praças de Vilhena Descrição: ✅01 Sala ✅02 quartos ✅01 suíte ✅01 banheiro social ✅Cozinha ✅Lavanderia separada ✅Área gourmet externa com churrasqueira integrada a cozinha ✅Lavabo ✅Corredor na lateral (Acesso externo e interno a área gourmet) ✅Forro Gesso ✅Janelas Blindex ✅Gramado ✅Lâmpadas Led ✅Piso em Porcelanato ✅Garagem para 2 carros ✅Fachada moderna 📍Bairro: Praças de Vilhena ✅Área construída em aproximadamente 138m² ✅Terreno com área de 300 m²</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>https://www.gamavilhena.com.br/imovel/casa-3-quartos-bnh-vilhena-2-vagas-163,39m2-code-4880</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>163</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D359" t="n">
-        <v>3</v>
-      </c>
-      <c r="E359" t="n">
-        <v>1</v>
-      </c>
-      <c r="F359" t="n">
-        <v>2</v>
-      </c>
-      <c r="G359" t="n">
-        <v>2</v>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>Vilhena</t>
-        </is>
-      </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>580000</t>
-        </is>
-      </c>
-      <c r="J359" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>VE</t>
-        </is>
-      </c>
-      <c r="L359" t="inlineStr">
         <is>
           <t>Quer morar em um rua tranquila e segura?
 Lhe apresento esta linda casa, localizada no bairro BNH próximo ao colégio Militar, melhores restaurantes e pizzarias da cidade, com farmácia perto, com muito praticidade de logística.
@@ -20873,6 +20823,68 @@
         </is>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
@@ -20882,10 +20894,8 @@
       <c r="B360" t="n">
         <v>200</v>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="C360" t="n">
+        <v>140</v>
       </c>
       <c r="D360" t="n">
         <v>3</v>
@@ -20901,7 +20911,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Casa no Quinto Bec</t>
+          <t>Quinto Bec</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -20949,11 +20959,15 @@
           <t>https://www.gamavilhena.com.br/imovel/casa-3-quartos-residencial-cidade-verde-vilhena-140m2-code-1012</t>
         </is>
       </c>
-      <c r="B361" t="n">
-        <v>240</v>
-      </c>
-      <c r="C361" t="n">
-        <v>140</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="D361" t="n">
         <v>3</v>
@@ -21035,7 +21049,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -21089,7 +21103,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Prédio comercial no Jardim das Oliveiras</t>
+          <t>Jardim das Oliveiras</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -21545,7 +21559,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>fase de construção, localizado no Solar de Vilhena</t>
+          <t>Solar de Vilhena</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -21939,7 +21953,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>ium Residence &amp; Resort</t>
+          <t>Condomínio Boulevard Premium Residence &amp; Resort</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -21999,7 +22013,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Galpão no Setor 19</t>
+          <t>Setor 19</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -22223,7 +22237,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Casa no bairro Cidade Verde 3</t>
+          <t>bairro Cidade Verde 3</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -22387,7 +22401,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>fase de construção no Bairro Cidade Verde 5</t>
+          <t>Bairro Cidade Verde 5</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -22506,7 +22520,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>conjunto de apartamentos no Jardim Social</t>
+          <t>Jardim Social</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -22610,7 +22624,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Casa no Parque São Paulo</t>
+          <t>Parque São Paulo</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -22928,7 +22942,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Parque Industrial Novo Tempo</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -23292,7 +23306,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Casa no Bodanese com 2 suíte e 2 quartos R$ 1.880</t>
+          <t>Bodanese com 2 suíte e 2 quartos R$ 1.880</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -23678,7 +23692,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Casa no Jardim Social</t>
+          <t>Jardim Social</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -24442,7 +24456,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Vende-se casa no Bairro Green Ville</t>
+          <t>Bairro Green Ville</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -24684,7 +24698,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>em Parque Industrial Novo Tempo</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -25251,7 +25265,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Residencial Santos Dumont II</t>
+          <t>em Residencial Santos Dumont II</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -25428,7 +25442,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Casa no Residencial Santos Dumont II</t>
+          <t>Residencial Santos Dumont II</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -26103,7 +26117,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Casa no Solar</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -26664,7 +26678,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Casa nova pronta pra morar no Cidade Verde 4.</t>
+          <t>Cidade Verde 4.</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -27059,7 +27073,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Casa no Jardim Social</t>
+          <t>Jardim Social</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -27438,7 +27452,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Casa no Jardim América</t>
+          <t>Jardim América</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -27666,7 +27680,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Imóvel localizado no Bairro Alto Alegre.</t>
+          <t>Bairro Alto Alegre.</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -27720,7 +27734,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -28638,7 +28652,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Casa no Embratel</t>
+          <t>Embratel</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -28864,7 +28878,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -29375,7 +29389,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Casa no Jardim Eldorado.</t>
+          <t>Jardim Eldorado.</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -29603,7 +29617,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>fase de acabamento, no centro da cidade de Vilhena!</t>
+          <t>centro da cidade de Vilhena!</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -29657,7 +29671,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Casa no Centro.</t>
+          <t>Centro.</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -30115,7 +30129,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>ium</t>
+          <t>Condomínio Boulevard Premium</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -30474,7 +30488,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Casa no bairro Jardim das Oliveiras</t>
+          <t>bairro Jardim das Oliveiras</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -32446,7 +32460,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Prédio comercial no Solar de Vilhena.</t>
+          <t>Solar de Vilhena.</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -32732,7 +32746,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Residencial Alphaville</t>
+          <t>em Residencial Alphaville</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -33714,7 +33728,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Casa no centro de Vilhena, com dois quartos</t>
+          <t>centro de Vilhena, com dois quartos</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -33839,7 +33853,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Casa disponível a venda no Bairro Barão do Melgaço 3.</t>
+          <t>Bairro Barão do Melgaço 3.</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -36224,10 +36238,8 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="C629" t="n">
+        <v>105</v>
       </c>
       <c r="D629" t="n">
         <v>2</v>
@@ -36585,7 +36597,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Casa no Residencial Alphaville</t>
+          <t>Residencial Alphaville</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -37920,7 +37932,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Casa no Jardim Eldorado.</t>
+          <t>Jardim Eldorado.</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -40262,7 +40274,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Casa disponível a venda no Bairro Jardim Primavera.</t>
+          <t>Bairro Jardim Primavera.</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -40553,7 +40565,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Galpão no Embratel</t>
+          <t>Embratel</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -42389,7 +42401,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Barão do Melgaço 3</t>
+          <t>em Barão do Melgaço 3</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -42681,7 +42693,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Marcos Freire</t>
+          <t>em Marcos Freire</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -43637,7 +43649,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Terreno no condomínio jardim Europa</t>
+          <t>condomínio jardim Europa</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -43929,7 +43941,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Casa no residencial Florença</t>
+          <t>residencial Florença</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -44557,7 +44569,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>construção no Orleans</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -44738,7 +44750,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Casa no bairro Cidade Verde 2</t>
+          <t>bairro Cidade Verde 2</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -44794,7 +44806,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Casa nova pronta para morar no Orleans</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -45495,7 +45507,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>fase de construção localizada no Bairro Orleans.</t>
+          <t>Bairro Orleans.</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -46003,7 +46015,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Casa no Alto Alegre</t>
+          <t>Alto Alegre</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -46173,7 +46185,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>fase de construção no Bairro Alto dos Parecis.</t>
+          <t>Bairro Alto dos Parecis.</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -47301,7 +47313,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Casa finalizando a construção no Orleans.</t>
+          <t>Orleans.</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -48093,7 +48105,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Marcos Freire</t>
+          <t>em Marcos Freire</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -48958,7 +48970,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>pronta p/ morar no Orleans.</t>
+          <t>Orleans.</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -49126,7 +49138,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Terreno no Condomínio Los Angeles</t>
+          <t>Condomínio Los Angeles</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -49673,7 +49685,11 @@
       <c r="G858" t="n">
         <v>2</v>
       </c>
-      <c r="H858" t="inlineStr"/>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>Orleans - Contagem</t>
+        </is>
+      </c>
       <c r="I858" t="inlineStr">
         <is>
           <t>195000</t>
@@ -49951,7 +49967,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>fase de construção no Bairro Parque Cidade Jardim 1.</t>
+          <t>Bairro Parque Cidade Jardim 1.</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -50617,7 +50633,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Casa na planta por 190 mil no barão 3</t>
+          <t>barão 3</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -50685,7 +50701,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Terreno no Centro disponível a venda!</t>
+          <t>Centro disponível a venda!</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -51292,7 +51308,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>fase de construção no Bairro Parque Cidade Jardim 1.</t>
+          <t>Bairro Parque Cidade Jardim 1.</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -53258,7 +53274,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Terreno no Cidade Verde 4 - 1º fase - Próximo ao Shopping.</t>
+          <t>Cidade Verde 4 - 1º fase - Próximo ao Shopping.</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -53828,7 +53844,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Lote no setor Pioneiro</t>
+          <t>setor Pioneiro</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -53882,7 +53898,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -56589,7 +56605,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Lote / Terreno no Cidade Verde 3</t>
+          <t>Cidade Verde 3</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -57489,7 +57505,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bairro Ipanema</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -58056,7 +58072,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Lote no Residencial Cidade Verde</t>
+          <t>Residencial Cidade Verde</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -59326,7 +59342,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -59641,7 +59657,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Terreno de esquina no Cidade Verde 4 - 1º Fase.</t>
+          <t>Cidade Verde 4 - 1º Fase.</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -60806,7 +60822,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -60866,7 +60882,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>04 Lotes no Bairro Cidade Verde 4 - 1º fase.</t>
+          <t>Bairro Cidade Verde 4 - 1º fase.</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -61408,7 +61424,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Lote / Terreno no Alphaville</t>
+          <t>Alphaville</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -61471,7 +61487,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Terreno no Cidade Verde 4 - 1º fase.</t>
+          <t>Cidade Verde 4 - 1º fase.</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -62372,7 +62388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Moysés de Freitas</t>
+          <t>em Moysés de Freitas</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -62492,7 +62508,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Terreno inteiro no Moyses de Freitas.</t>
+          <t>Moyses de Freitas.</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -62674,7 +62690,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Lote no Cidade Verde 5</t>
+          <t>Cidade Verde 5</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -63460,7 +63476,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Terreno murado no Setor 03.</t>
+          <t>Setor 03.</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -63944,7 +63960,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Terreno no Cidade Verde 4 - 1° fase.</t>
+          <t>Cidade Verde 4 - 1° fase.</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -64188,7 +64204,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Cidade Verde 4</t>
+          <t>em Cidade Verde 4</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -64987,7 +65003,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bairro Ipanema</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -65294,7 +65310,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Terreno no Residencial Moysés de Freitas</t>
+          <t>Residencial Moysés de Freitas</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -65414,7 +65430,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Terreno inteiro no Parque Cidade Jardim 1.</t>
+          <t>Parque Cidade Jardim 1.</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -66795,7 +66811,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Casa no Condomínio Campos Elísios</t>
+          <t>Condomínio Campos Elísios</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -66847,7 +66863,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Casa no bairro Praças de Vilhena</t>
+          <t>bairro Praças de Vilhena</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -67547,7 +67563,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Novo Tempo</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -67665,7 +67681,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Parque Industrial Novo Tempo</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -67726,7 +67742,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>Parque Industrial Novo Tempo</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -68413,7 +68429,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Sala Comercial no bairro Jardim Eldorado</t>
+          <t>bairro Jardim Eldorado</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -69027,7 +69043,7 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>em Centro</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -69338,7 +69354,7 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="J1185" t="inlineStr">
@@ -69371,8 +69387,10 @@
           <t>None</t>
         </is>
       </c>
-      <c r="D1186" t="n">
-        <v>2</v>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="E1186" t="n">
         <v>2</v>
@@ -69625,7 +69643,7 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="J1190" t="inlineStr">
@@ -69906,7 +69924,7 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Centro no Hotel Portinari</t>
+          <t>Hotel Portinari</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
